--- a/Notebooks/unique_genes_reactions.xlsx
+++ b/Notebooks/unique_genes_reactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,12 +469,12 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DGK1</t>
+          <t>GK1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>atp[c] + dgmp[c] &lt;=&gt; adp[c] + dgdp[c]</t>
+          <t>atp[c] + gmp[c] &lt;=&gt; adp[c] + gdp[c]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,12 +492,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GK1</t>
+          <t>DGK1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>atp[c] + gmp[c] &lt;=&gt; adp[c] + gdp[c]</t>
+          <t>atp[c] + dgmp[c] &lt;=&gt; adp[c] + dgdp[c]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,18 +509,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100754883</t>
+          <t>100767083</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DMATTx</t>
+          <t>ADSS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dmpp[x] + ipdp[x] --&gt; grdp[x] + ppi[x]</t>
+          <t>asp_L[c] + gtp[c] + imp[c] --&gt; dcamp[c] + gdp[c] + 2.0 h[c] + pi[c]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,18 +532,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>100754883</t>
+          <t>100752019</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GRTTx</t>
+          <t>GLUCYS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>grdp[x] + ipdp[x] --&gt; frdp[x] + ppi[x]</t>
+          <t>atp[c] + cys_L[c] + glu_L[c] --&gt; adp[c] + glucys[c] + h[c] + pi[c]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -555,18 +555,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>100761591</t>
+          <t>100689093</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RNDR4</t>
+          <t>PSDm_cho</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>trdrd[c] + udp[c] --&gt; dudp[c] + h2o[c] + trdox[c]</t>
+          <t>h[m] + ps_cho[m] --&gt; co2[m] + pe_cho[m]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -578,18 +578,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>100761591</t>
+          <t>100762189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RNDR1</t>
+          <t>LNS14DMr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>adp[c] + trdrd[c] --&gt; dadp[c] + h2o[c] + trdox[c]</t>
+          <t>2.0 h[r] + lanost[r] + 3.0 nadph[r] + 3.0 o2[r] --&gt; 44mctr[r] + for[r] + 4.0 h2o[r] + 3.0 nadp[r]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -607,12 +607,12 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RNDR2</t>
+          <t>RNDR1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gdp[c] + trdrd[c] --&gt; dgdp[c] + h2o[c] + trdox[c]</t>
+          <t>adp[c] + trdrd[c] --&gt; dadp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -630,12 +630,12 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RNDR3</t>
+          <t>RNDR4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cdp[c] + trdrd[c] --&gt; dcdp[c] + h2o[c] + trdox[c]</t>
+          <t>trdrd[c] + udp[c] --&gt; dudp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -647,18 +647,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100689192</t>
+          <t>100761591</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PSPPSr</t>
+          <t>RNDR3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.0 frdp[r] --&gt; ppi[r] + psqldp[r]</t>
+          <t>cdp[c] + trdrd[c] --&gt; dcdp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -670,18 +670,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>100771594</t>
+          <t>100761591</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CYSRED</t>
+          <t>RNDR2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.0 cys_L[c] + nadp[c] &lt;=&gt; Lcystin[c] + h[c] + nadph[c]</t>
+          <t>gdp[c] + trdrd[c] --&gt; dgdp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -693,18 +693,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>100771594</t>
+          <t>100754784</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TRDR</t>
+          <t>C4STMO1r</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>h[c] + nadph[c] + trdox[c] --&gt; nadp[c] + trdrd[c]</t>
+          <t>44mzym[r] + 3.0 h[r] + 3.0 nadph[r] + 3.0 o2[r] --&gt; 4mzym_int1[r] + 4.0 h2o[r] + 3.0 nadp[r]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -716,18 +716,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>100767083</t>
+          <t>100754784</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADSS</t>
+          <t>C4STMO2r</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>asp_L[c] + gtp[c] + imp[c] --&gt; dcamp[c] + gdp[c] + 2.0 h[c] + pi[c]</t>
+          <t>4mzym_int2[r] + nad[r] + o2[r] --&gt; co2[r] + h[r] + nadh[r] + zym_int2[r]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -739,18 +739,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>100752366</t>
+          <t>100753498</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IPDDIx</t>
+          <t>LNSTLSr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ipdp[x] &lt;=&gt; dmpp[x]</t>
+          <t>Ssq23epx[r] --&gt; lanost[r]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -762,18 +762,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>100752366</t>
+          <t>100750801</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IPDDI</t>
+          <t>CDIPTr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ipdp[c] &lt;=&gt; dmpp[c]</t>
+          <t>cdpdag_cho[c] + inost[c] &lt;=&gt; cmp[c] + h[c] + pail_cho[c]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -785,18 +785,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>100752019</t>
+          <t>100689325</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLUCYS</t>
+          <t>GALU</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>atp[c] + cys_L[c] + glu_L[c] --&gt; adp[c] + glucys[c] + h[c] + pi[c]</t>
+          <t>g1p[c] + h[c] + utp[c] &lt;=&gt; ppi[c] + udpg[c]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -808,18 +808,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>100689325</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GALU</t>
+          <t>NDPK8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>g1p[c] + h[c] + utp[c] &lt;=&gt; ppi[c] + udpg[c]</t>
+          <t>atp[c] + dadp[c] --&gt; adp[c] + datp[c]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -831,18 +831,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>100752542</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RNDR4</t>
+          <t>NDPK4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>trdrd[c] + udp[c] --&gt; dudp[c] + h2o[c] + trdox[c]</t>
+          <t>atp[c] + dtdp[c] --&gt; adp[c] + dttp[c]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -854,18 +854,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>100752542</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RNDR1</t>
+          <t>NDPK3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>adp[c] + trdrd[c] --&gt; dadp[c] + h2o[c] + trdox[c]</t>
+          <t>atp[c] + cdp[c] --&gt; adp[c] + ctp[c]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -877,18 +877,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100752542</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RNDR2</t>
+          <t>NDPK7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>gdp[c] + trdrd[c] --&gt; dgdp[c] + h2o[c] + trdox[c]</t>
+          <t>atp[c] + dcdp[c] --&gt; adp[c] + dctp[c]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -900,18 +900,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>100752542</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RNDR3</t>
+          <t>NDPK10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>cdp[c] + trdrd[c] --&gt; dcdp[c] + h2o[c] + trdox[c]</t>
+          <t>atp[c] + didp[c] --&gt; adp[c] + ditp[c]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -923,18 +923,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>100754784</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C4STMO2r</t>
+          <t>NDPK1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4mzym_int2[r] + nad[r] + o2[r] --&gt; co2[r] + h[r] + nadh[r] + zym_int2[r]</t>
+          <t>atp[c] + gdp[c] --&gt; adp[c] + gtp[c]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -946,18 +946,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>100754784</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C4STMO1r</t>
+          <t>NDPK2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>44mzym[r] + 3.0 h[r] + 3.0 nadph[r] + 3.0 o2[r] --&gt; 4mzym_int1[r] + 4.0 h2o[r] + 3.0 nadp[r]</t>
+          <t>atp[c] + udp[c] --&gt; adp[c] + utp[c]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -969,18 +969,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>100750801</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CDIPTr</t>
+          <t>NDPK9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cdpdag_cho[c] + inost[c] &lt;=&gt; cmp[c] + h[c] + pail_cho[c]</t>
+          <t>atp[c] + idp[c] --&gt; adp[c] + itp[c]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -992,18 +992,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>100762189</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LNS14DMr</t>
+          <t>NDPK6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.0 h[r] + lanost[r] + 3.0 nadph[r] + 3.0 o2[r] --&gt; 44mctr[r] + for[r] + 4.0 h2o[r] + 3.0 nadp[r]</t>
+          <t>atp[c] + dudp[c] --&gt; adp[c] + dutp[c]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1015,18 +1015,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>100689093</t>
+          <t>100763307</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PSDm_cho</t>
+          <t>NDPK5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>h[m] + ps_cho[m] --&gt; co2[m] + pe_cho[m]</t>
+          <t>atp[c] + dgdp[c] --&gt; adp[c] + dgtp[c]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1038,18 +1038,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>100753498</t>
+          <t>100689192</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LNSTLSr</t>
+          <t>PSPPSr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ssq23epx[r] --&gt; lanost[r]</t>
+          <t>2.0 frdp[r] --&gt; ppi[r] + psqldp[r]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1061,18 +1061,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>100767580</t>
+          <t>100752366</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HSD17B9r</t>
+          <t>IPDDIx</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>andrstrn[r] + h[r] + nadph[r] + 1.5 o2[r] --&gt; eandrstrn[r] + 2.0 h2o[r] + nadp[r]</t>
+          <t>ipdp[x] &lt;=&gt; dmpp[x]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1084,18 +1084,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>100767580</t>
+          <t>100752366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C3STKR2r</t>
+          <t>IPDDI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>h[r] + nadph[r] + zym_int2[r] --&gt; nadp[r] + zymst[r]</t>
+          <t>ipdp[c] &lt;=&gt; dmpp[c]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1107,18 +1107,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>100767580</t>
+          <t>100754883</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HSD17B7r</t>
+          <t>DMATTx</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>estrone[r] + h[r] + nadph[r] --&gt; estradiol[r] + nadp[r]</t>
+          <t>dmpp[x] + ipdp[x] --&gt; grdp[x] + ppi[x]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1130,18 +1130,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100754883</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NDPK2</t>
+          <t>GRTTx</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>atp[c] + udp[c] --&gt; adp[c] + utp[c]</t>
+          <t>grdp[x] + ipdp[x] --&gt; frdp[x] + ppi[x]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1153,18 +1153,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100767580</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NDPK5</t>
+          <t>HSD17B9r</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>atp[c] + dgdp[c] --&gt; adp[c] + dgtp[c]</t>
+          <t>andrstrn[r] + h[r] + nadph[r] + 1.5 o2[r] --&gt; eandrstrn[r] + 2.0 h2o[r] + nadp[r]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1176,18 +1176,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100767580</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NDPK7</t>
+          <t>HSD17B7r</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>atp[c] + dcdp[c] --&gt; adp[c] + dctp[c]</t>
+          <t>estrone[r] + h[r] + nadph[r] --&gt; estradiol[r] + nadp[r]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1199,18 +1199,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100767580</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NDPK3</t>
+          <t>C3STKR2r</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>atp[c] + cdp[c] --&gt; adp[c] + ctp[c]</t>
+          <t>h[r] + nadph[r] + zym_int2[r] --&gt; nadp[r] + zymst[r]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1222,18 +1222,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100752542</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NDPK9</t>
+          <t>RNDR1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>atp[c] + idp[c] --&gt; adp[c] + itp[c]</t>
+          <t>adp[c] + trdrd[c] --&gt; dadp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1245,18 +1245,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100752542</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NDPK4</t>
+          <t>RNDR4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>atp[c] + dtdp[c] --&gt; adp[c] + dttp[c]</t>
+          <t>trdrd[c] + udp[c] --&gt; dudp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1268,18 +1268,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100752542</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NDPK8</t>
+          <t>RNDR3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>atp[c] + dadp[c] --&gt; adp[c] + datp[c]</t>
+          <t>cdp[c] + trdrd[c] --&gt; dcdp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1291,18 +1291,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100752542</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NDPK6</t>
+          <t>RNDR2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>atp[c] + dudp[c] --&gt; adp[c] + dutp[c]</t>
+          <t>gdp[c] + trdrd[c] --&gt; dgdp[c] + h2o[c] + trdox[c]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1314,18 +1314,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100771594</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NDPK10</t>
+          <t>CYSRED</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>atp[c] + didp[c] --&gt; adp[c] + ditp[c]</t>
+          <t>2.0 cys_L[c] + nadp[c] &lt;=&gt; Lcystin[c] + h[c] + nadph[c]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1337,18 +1337,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>100763307</t>
+          <t>100771594</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NDPK1</t>
+          <t>TRDR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>atp[c] + gdp[c] --&gt; adp[c] + gtp[c]</t>
+          <t>h[c] + nadph[c] + trdox[c] --&gt; nadp[c] + trdrd[c]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1360,22 +1360,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100763175</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>LOC100763175</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HMR_7610</t>
+          <t>CYOR_u10m</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C03820_c + cdpchol_c &lt;=&gt; cmp_c + paf_cho_c</t>
+          <t>2.0 ficytC_m + 2.0 h_m + q10h2_m --&gt; 2.0 focytC_m + 4.0 h_im + q10_m</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1387,22 +1387,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100770431</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Atp5f1a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HMR_7599</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpea_c --&gt; ak2gpe_cho_c + cmp_c</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1414,22 +1414,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100763024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Atp5f1b</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AGLPET</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpea_c + h_c &lt;=&gt; ak2gpe_cho_c + cmp_c + h2o_c</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1441,22 +1441,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100759002</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>LOC100759002</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HMR_7604</t>
+          <t>CYOR_u10m</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M00512_c + cdpea_c &lt;=&gt; cmp_c + dak2gpe_cho_c</t>
+          <t>2.0 ficytC_m + 2.0 h_m + q10h2_m --&gt; 2.0 focytC_m + 4.0 h_im + q10_m</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1468,22 +1468,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100774535</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Atp5pb</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HMR_0468</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1495,22 +1495,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100754752</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Atpaf2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RE3267R</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1522,22 +1522,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100763416</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Mtr</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CEPTE</t>
+          <t>METS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cdpea_c + dag_cho_c --&gt; cmp_c + h_c + pe_cho_c</t>
+          <t>5mthf_c + hcys_L_c --&gt; h_c + met_L_c + thf_c</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1549,22 +1549,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>100773070</t>
+          <t>100750969</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cept1</t>
+          <t>Ahcy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AGLPC</t>
+          <t>AHC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ak2g_cho_c + cdpchol_c --&gt; ak2gchol_cho_c + cmp_c + h2o_c + h_c</t>
+          <t>ahcys_c + h2o_c &lt;=&gt; adn_c + hcys_L_c</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CEPTC</t>
+          <t>CEPTE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cdpchol_c + dag_cho_c --&gt; cmp_c + h_c + pchol_cho_c</t>
+          <t>cdpea_c + dag_cho_c --&gt; cmp_c + h_c + pe_cho_c</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RE3267N</t>
+          <t>CEPTC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
+          <t>cdpchol_c + dag_cho_c --&gt; cmp_c + h_c + pchol_cho_c</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1630,22 +1630,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>100763416</t>
+          <t>100773070</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mtr</t>
+          <t>Cept1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>METS</t>
+          <t>AGLPC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5mthf_c + hcys_L_c --&gt; h_c + met_L_c + thf_c</t>
+          <t>ak2g_cho_c + cdpchol_c --&gt; ak2gchol_cho_c + cmp_c + h2o_c + h_c</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1657,22 +1657,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>100763416</t>
+          <t>100760824</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mtr</t>
+          <t>LOC100760824</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HMR_9575</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>100766032</t>
+          <t>100766805</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LOC100766032</t>
+          <t>LOC100766805</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1711,12 +1711,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>100766805</t>
+          <t>100766032</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LOC100766805</t>
+          <t>LOC100766032</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1738,106 +1738,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>100750969</t>
+          <t>103160361</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ahcy</t>
+          <t>Atp5mf</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AHC</t>
+          <t>ATPS4m</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ahcys_c + h2o_c &lt;=&gt; adn_c + hcys_L_c</t>
+          <t>adp_m + 4.0 h_im + pi_m --&gt; atp_m + h2o_m + 3.0 h_m</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>iCHO3K</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>100750969</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ahcy</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SEAHCYSHYD</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>h2o_c + seahcys_c --&gt; adn_c + selhcys_c</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>iCHO3K</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>100759002</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>LOC100759002</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CYOR_u10m</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.0 ficytC_m + 2.0 h_m + q10h2_m --&gt; 2.0 focytC_m + 4.0 h_im + q10_m</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>iCHO3K</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>100763175</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>LOC100763175</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CYOR_u10m</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.0 ficytC_m + 2.0 h_m + q10h2_m --&gt; 2.0 focytC_m + 4.0 h_im + q10_m</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>iCHO3K</t>
         </is>
